--- a/Data_science_outputs/500pop/avg_analysis/avg_analysis_2.xlsx
+++ b/Data_science_outputs/500pop/avg_analysis/avg_analysis_2.xlsx
@@ -493,16 +493,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8723.944990062781</v>
+        <v>5274.753221354645</v>
       </c>
       <c r="C3" t="n">
         <v>3892.239263472235</v>
       </c>
       <c r="D3" t="n">
-        <v>3790.679897168949</v>
+        <v>358.7562405079912</v>
       </c>
       <c r="E3" t="n">
-        <v>1031.992190001903</v>
+        <v>1026.394109535767</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -514,16 +514,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4417.268537941792</v>
+        <v>2239.107111578818</v>
       </c>
       <c r="C4" t="n">
         <v>1998.244698125275</v>
       </c>
       <c r="D4" t="n">
-        <v>3599.645693032438</v>
+        <v>260.2557971754076</v>
       </c>
       <c r="E4" t="n">
-        <v>303.6791850498388</v>
+        <v>307.0650882933824</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1631.647572602739</v>
+        <v>1572.434019178082</v>
       </c>
       <c r="C5" t="n">
         <v>954.8052333333336</v>
       </c>
       <c r="D5" t="n">
-        <v>9.315284931506856</v>
+        <v>4.657665753424657</v>
       </c>
       <c r="E5" t="n">
-        <v>407.485304109589</v>
+        <v>408.6635041095888</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -556,16 +556,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4512.799286301368</v>
+        <v>3455.605529452056</v>
       </c>
       <c r="C6" t="n">
         <v>2107.042608333333</v>
       </c>
       <c r="D6" t="n">
-        <v>107.123719178082</v>
+        <v>93.151101369863</v>
       </c>
       <c r="E6" t="n">
-        <v>763.9634239726014</v>
+        <v>763.0724561643824</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -577,16 +577,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9134.737986301359</v>
+        <v>4550.077228767123</v>
       </c>
       <c r="C7" t="n">
         <v>3209.728666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>3834.438417808218</v>
+        <v>319.8356164383562</v>
       </c>
       <c r="E7" t="n">
-        <v>1064.625386301369</v>
+        <v>1048.694015068493</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -598,16 +598,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11579.2417178082</v>
+        <v>7141.529674657531</v>
       </c>
       <c r="C8" t="n">
         <v>5572.258241666674</v>
       </c>
       <c r="D8" t="n">
-        <v>7680</v>
+        <v>640</v>
       </c>
       <c r="E8" t="n">
-        <v>1319.188760958904</v>
+        <v>1323.794597260274</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16077.02662191786</v>
+        <v>10047.15101095893</v>
       </c>
       <c r="C9" t="n">
         <v>8683.631266666685</v>
       </c>
       <c r="D9" t="n">
-        <v>7680.000030136988</v>
+        <v>644.6575863013696</v>
       </c>
       <c r="E9" t="n">
-        <v>1655.510893150687</v>
+        <v>1676.743756164386</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>12562480.78569042</v>
+        <v>7595644.638750695</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>5604824.539400009</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4471913689661928</v>
+        <v>0.7373999707823244</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>5458579.051923288</v>
+        <v>516608.9863315067</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4345144199656018</v>
+        <v>0.06801384357766332</v>
       </c>
     </row>
     <row r="13">
@@ -693,10 +693,10 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>1486068.753602738</v>
+        <v>1478007.517731505</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1182942110682055</v>
+        <v>0.1945861856400121</v>
       </c>
     </row>
   </sheetData>
